--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -152,10 +152,13 @@
     <t>Формокомплект бутылки «Сябры»  тип XXI-В-28-2,1-500-16 (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
   <si>
-    <t>Начальник УРФ                                            Е.А. Козинов</t>
-  </si>
-  <si>
     <t>Дата поставки  14.01.19 (c остаточным ресурсом 74 %)</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 430 гр.)</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -266,16 +269,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -702,7 +695,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -749,9 +742,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,12 +769,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,9 +810,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,8 +863,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,6 +912,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -956,16 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1275,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="E37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1296,34 +1293,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1334,364 +1331,364 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52">
         <v>24</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="F5" s="103"/>
+      <c r="G5" s="52">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="84"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57">
+      <c r="A6" s="53">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="85"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57">
+      <c r="A7" s="53">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="85"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57">
+      <c r="A8" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="85"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57">
+      <c r="A9" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="85"/>
+      <c r="L9" s="81"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57">
+      <c r="A10" s="53">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57">
+      <c r="A11" s="53">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="57">
+      <c r="L11" s="81"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="53">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="36"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="57">
+      <c r="A13" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="57">
+      <c r="L13" s="81"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="53">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="104">
         <v>5</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="57">
+      <c r="L14" s="81"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="53">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="95" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="13">
         <v>60</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="57">
+      <c r="L15" s="81"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="53">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="109"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="95"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="85"/>
+      <c r="L16" s="81"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="14"/>
@@ -1713,116 +1710,139 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="J19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="86">
+      <c r="A20" s="82">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89">
+      <c r="B20" s="84"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85">
         <v>4360000</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="43">
         <f>F20/A$20</f>
         <v>0.25952380952380955</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="89">
         <f>A20-F20</f>
         <v>12440000</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="90">
         <f>1-G20</f>
         <v>0.74047619047619051</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="90">
+      <c r="A21" s="49"/>
+      <c r="B21" s="86">
         <v>43572</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="86">
         <v>43579</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="86">
         <v>43581</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="87">
         <v>1016652</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="87">
         <v>1151547</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="43">
         <f>F21/A$20</f>
         <v>6.8544464285714285E-2</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="89">
         <f>H20-F21</f>
         <v>11288453</v>
       </c>
-      <c r="I21" s="94">
+      <c r="I21" s="90">
         <f>I20-G21</f>
         <v>0.67193172619047625</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="97"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="16"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="B22" s="10">
+        <v>43834</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43839</v>
+      </c>
+      <c r="D22" s="10">
+        <v>43857</v>
+      </c>
+      <c r="E22" s="11">
+        <v>893760</v>
+      </c>
+      <c r="F22" s="11">
+        <v>941633</v>
+      </c>
+      <c r="G22" s="43">
+        <f>F22/A$20</f>
+        <v>5.6049583333333333E-2</v>
+      </c>
+      <c r="H22" s="89">
+        <f>H21-F22</f>
+        <v>10346820</v>
+      </c>
+      <c r="I22" s="90">
+        <f>I21-G22</f>
+        <v>0.61588214285714293</v>
+      </c>
+      <c r="J22" s="98">
+        <v>429</v>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="16"/>
@@ -1834,8 +1854,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1845,11 +1865,11 @@
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="78"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1859,11 +1879,11 @@
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1871,13 +1891,13 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1885,13 +1905,13 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1901,11 +1921,11 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -1915,11 +1935,11 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
@@ -1929,10 +1949,10 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="101"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -1943,31 +1963,31 @@
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="65">
+      <c r="E31" s="61">
         <f>SUM(E20:E30)</f>
-        <v>1016652</v>
-      </c>
-      <c r="F31" s="64">
+        <v>1910412</v>
+      </c>
+      <c r="F31" s="60">
         <f>SUM(F20:F30)</f>
-        <v>5511547</v>
-      </c>
-      <c r="G31" s="28">
+        <v>6453180</v>
+      </c>
+      <c r="G31" s="27">
         <f>SUM(G20:G30)</f>
-        <v>0.32806827380952386</v>
+        <v>0.38411785714285718</v>
       </c>
       <c r="H31" s="24">
         <f>A20-F31</f>
-        <v>11288453</v>
-      </c>
-      <c r="I31" s="37">
+        <v>10346820</v>
+      </c>
+      <c r="I31" s="36">
         <f>1-G31</f>
-        <v>0.67193172619047614</v>
-      </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.61588214285714282</v>
+      </c>
+      <c r="J31" s="102"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1979,13 +1999,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A35" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1993,11 +2013,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="101" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
@@ -2011,32 +2031,30 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="99">
+    <row r="37" spans="1:11">
+      <c r="A37" s="107">
         <f>A20-F31</f>
-        <v>11288453</v>
-      </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="87">
+        <v>10346820</v>
+      </c>
+      <c r="B37" s="108"/>
+      <c r="C37" s="83">
         <f>1-G31</f>
-        <v>0.67193172619047614</v>
+        <v>0.61588214285714282</v>
       </c>
       <c r="D37" s="25">
         <f>(C37/0.8)*100</f>
-        <v>83.991465773809509</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>76.985267857142844</v>
+      </c>
+      <c r="E37" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2044,7 +2062,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2059,7 +2077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:11" ht="15.6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2071,114 +2089,114 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="98"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
+    <row r="41" spans="1:11">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="106"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="71"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="71"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="67"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="71"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="71"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="67"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="71"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="71"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="70"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="71"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="71"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="67"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="75"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2186,40 +2204,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="98"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="70"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="70"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2232,24 +2250,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="97"/>
-      <c r="C60" s="98"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="97"/>
-      <c r="C67" s="98"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>№Поз</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,8 +733,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -757,8 +757,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,8 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -927,9 +923,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,6 +930,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1272,27 +1295,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="E37:J37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="111" t="s">
         <v>41</v>
       </c>
@@ -1316,14 +1339,14 @@
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1331,364 +1354,364 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <v>24</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="52">
+      <c r="F5" s="93"/>
+      <c r="G5" s="47">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="80"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="53">
+      <c r="A6" s="48">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="104"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="81"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="53">
+      <c r="A7" s="48">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="104"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="81"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="53">
+      <c r="A8" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="104"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="81"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="81"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="53">
+      <c r="A10" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="104"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="81"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="53">
+      <c r="A11" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="104"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="53">
+      <c r="A12" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="56"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="53">
+      <c r="A13" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="81"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="53">
+      <c r="A14" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="94">
         <v>5</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="56"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="81"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="53">
+      <c r="A15" s="48">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="88" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="13">
         <v>60</v>
       </c>
-      <c r="F15" s="104"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="56"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="81"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="104"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="91"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="81"/>
+      <c r="L16" s="74"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="73"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1698,9 +1721,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="14"/>
@@ -1710,107 +1733,107 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="44" t="s">
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1">
+      <c r="A19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="82">
+      <c r="A20" s="75">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85">
+      <c r="B20" s="77"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78">
         <v>4360000</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="38">
         <f>F20/A$20</f>
         <v>0.25952380952380955</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="82">
         <f>A20-F20</f>
         <v>12440000</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="83">
         <f>1-G20</f>
         <v>0.74047619047619051</v>
       </c>
-      <c r="J20" s="97"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="86">
+      <c r="A21" s="44"/>
+      <c r="B21" s="79">
         <v>43572</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="79">
         <v>43579</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="79">
         <v>43581</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="80">
         <v>1016652</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="80">
         <v>1151547</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="38">
         <f>F21/A$20</f>
         <v>6.8544464285714285E-2</v>
       </c>
-      <c r="H21" s="89">
-        <f>H20-F21</f>
+      <c r="H21" s="82">
+        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>11288453</v>
       </c>
-      <c r="I21" s="90">
-        <f>I20-G21</f>
+      <c r="I21" s="83">
+        <f t="shared" si="2"/>
         <v>0.67193172619047625</v>
       </c>
-      <c r="J21" s="97"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="10">
         <v>43834</v>
       </c>
@@ -1826,166 +1849,208 @@
       <c r="F22" s="11">
         <v>941633</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="38">
         <f>F22/A$20</f>
         <v>5.6049583333333333E-2</v>
       </c>
-      <c r="H22" s="89">
-        <f>H21-F22</f>
+      <c r="H22" s="82">
+        <f t="shared" si="2"/>
         <v>10346820</v>
       </c>
-      <c r="I22" s="90">
-        <f>I21-G22</f>
+      <c r="I22" s="83">
+        <f t="shared" si="2"/>
         <v>0.61588214285714293</v>
       </c>
-      <c r="J22" s="98">
+      <c r="J22" s="91">
         <v>429</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="16"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="77"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="10">
+        <v>43920</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43922</v>
+      </c>
+      <c r="E23" s="28">
+        <v>277438</v>
+      </c>
+      <c r="F23" s="28">
+        <v>304900</v>
+      </c>
+      <c r="G23" s="38">
+        <f>F23/A$20</f>
+        <v>1.8148809523809525E-2</v>
+      </c>
+      <c r="H23" s="82">
+        <f t="shared" si="2"/>
+        <v>10041920</v>
+      </c>
+      <c r="I23" s="83">
+        <f t="shared" si="2"/>
+        <v>0.59773333333333345</v>
+      </c>
+      <c r="J23" s="98">
+        <v>429</v>
+      </c>
+      <c r="K23" s="70"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="78"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43923</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43930</v>
+      </c>
+      <c r="E24" s="28">
+        <v>316540</v>
+      </c>
+      <c r="F24" s="28">
+        <v>322237</v>
+      </c>
+      <c r="G24" s="25">
+        <f>F24/A$20</f>
+        <v>1.9180773809523811E-2</v>
+      </c>
+      <c r="H24" s="82">
+        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <v>9719683</v>
+      </c>
+      <c r="I24" s="83">
+        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <v>0.57855255952380968</v>
+      </c>
+      <c r="J24" s="91">
+        <v>429</v>
+      </c>
+      <c r="K24" s="71"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="77"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="77"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="77"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="99"/>
       <c r="J28" s="100"/>
-      <c r="K28" s="77"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="99"/>
       <c r="J29" s="100"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="101"/>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="104"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="21" t="s">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="61">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="95">
         <f>SUM(E20:E30)</f>
-        <v>1910412</v>
-      </c>
-      <c r="F31" s="60">
+        <v>2504390</v>
+      </c>
+      <c r="F31" s="96">
         <f>SUM(F20:F30)</f>
-        <v>6453180</v>
-      </c>
-      <c r="G31" s="27">
+        <v>7080317</v>
+      </c>
+      <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.38411785714285718</v>
-      </c>
-      <c r="H31" s="24">
+        <v>0.42144744047619054</v>
+      </c>
+      <c r="H31" s="21">
         <f>A20-F31</f>
-        <v>10346820</v>
-      </c>
-      <c r="I31" s="36">
+        <v>9719683</v>
+      </c>
+      <c r="I31" s="31">
         <f>1-G31</f>
-        <v>0.61588214285714282</v>
-      </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+        <v>0.57855255952380946</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2034,25 +2099,25 @@
     <row r="37" spans="1:11">
       <c r="A37" s="107">
         <f>A20-F31</f>
-        <v>10346820</v>
+        <v>9719683</v>
       </c>
       <c r="B37" s="108"/>
-      <c r="C37" s="83">
+      <c r="C37" s="76">
         <f>1-G31</f>
-        <v>0.61588214285714282</v>
-      </c>
-      <c r="D37" s="25">
+        <v>0.57855255952380946</v>
+      </c>
+      <c r="D37" s="22">
         <f>(C37/0.8)*100</f>
-        <v>76.985267857142844</v>
-      </c>
-      <c r="E37" s="96" t="s">
+        <v>72.319069940476183</v>
+      </c>
+      <c r="E37" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2077,7 +2142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2090,113 +2155,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="105"/>
       <c r="J41" s="106"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="67"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="67"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="67"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="67"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="67"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="66"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="67"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="66"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="67"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="67"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="1"/>
       <c r="B51" s="113"/>
       <c r="C51" s="113"/>
       <c r="D51" s="114"/>
-      <c r="E51" s="71"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2204,38 +2269,38 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
       <c r="I52" s="105"/>
       <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="66"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="67"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="60"/>
       <c r="I53" s="110"/>
       <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="66"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
       <c r="I54" s="110"/>
       <c r="J54" s="110"/>
     </row>
@@ -2292,7 +2357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2308,17 +2373,17 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C4582A-4A06-404A-83A3-D71A0E09AE5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -175,7 +183,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -962,6 +970,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,20 +993,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1082,6 +1090,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1117,6 +1142,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1292,14 +1334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -1315,30 +1357,30 @@
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="115" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1346,7 +1388,7 @@
       <c r="L2" s="33"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1358,7 +1400,7 @@
       <c r="K3" s="33"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="64.5" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>1</v>
       </c>
@@ -1421,7 +1463,7 @@
       <c r="K5" s="46"/>
       <c r="L5" s="73"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <f>A5+1</f>
         <v>2</v>
@@ -1447,7 +1489,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="74"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -1473,7 +1515,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="74"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1499,7 +1541,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="74"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1525,7 +1567,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="74"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1551,7 +1593,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="74"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1578,7 +1620,7 @@
       <c r="L11" s="74"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1605,7 +1647,7 @@
       <c r="L12" s="74"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1633,7 +1675,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1661,7 +1703,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="74"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="48">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1687,7 +1729,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="74"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1709,7 +1751,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="74"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
       <c r="B17" s="65"/>
       <c r="C17" s="1"/>
@@ -1721,7 +1763,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="67" t="s">
         <v>10</v>
@@ -1737,7 +1779,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
     </row>
-    <row r="19" spans="1:12" ht="64.5" thickBot="1">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1813,7 @@
       <c r="K19" s="69"/>
       <c r="L19" s="69"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="75">
         <f>E5*700000</f>
         <v>16800000</v>
@@ -1799,7 +1841,7 @@
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="79">
         <v>43572</v>
@@ -1832,7 +1874,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="10">
         <v>43834</v>
@@ -1867,7 +1909,7 @@
       <c r="K22" s="62"/>
       <c r="L22" s="62"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="10">
         <v>43920</v>
@@ -1902,7 +1944,7 @@
       <c r="K23" s="70"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
         <v>45</v>
@@ -1937,7 +1979,7 @@
       <c r="K24" s="71"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1951,7 +1993,7 @@
       <c r="K25" s="70"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1965,7 +2007,7 @@
       <c r="K26" s="70"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1979,7 +2021,7 @@
       <c r="K27" s="70"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1993,7 +2035,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2007,7 +2049,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2021,7 +2063,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
@@ -2052,7 +2094,7 @@
       <c r="K31" s="72"/>
       <c r="L31" s="72"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2064,13 +2106,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="112" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2078,11 +2120,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="109" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="109"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
@@ -2096,12 +2138,12 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="107">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="113">
         <f>A20-F31</f>
         <v>9719683</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="76">
         <f>1-G31</f>
         <v>0.57855255952380946</v>
@@ -2119,7 +2161,7 @@
       <c r="I37" s="89"/>
       <c r="J37" s="89"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2127,7 +2169,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2142,7 +2184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2154,7 +2196,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -2163,10 +2205,10 @@
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="I41" s="111"/>
+      <c r="J41" s="112"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="59"/>
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
@@ -2176,7 +2218,7 @@
       <c r="G42" s="61"/>
       <c r="H42" s="60"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -2186,7 +2228,7 @@
       <c r="G43" s="61"/>
       <c r="H43" s="60"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="59"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -2196,7 +2238,7 @@
       <c r="G44" s="61"/>
       <c r="H44" s="60"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -2206,7 +2248,7 @@
       <c r="G45" s="61"/>
       <c r="H45" s="60"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="59"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -2216,7 +2258,7 @@
       <c r="G46" s="61"/>
       <c r="H46" s="60"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="59"/>
       <c r="B47" s="60"/>
       <c r="C47" s="62"/>
@@ -2226,7 +2268,7 @@
       <c r="G47" s="62"/>
       <c r="H47" s="62"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="59"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -2236,7 +2278,7 @@
       <c r="G48" s="61"/>
       <c r="H48" s="60"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -2246,7 +2288,7 @@
       <c r="G49" s="61"/>
       <c r="H49" s="60"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="59"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -2256,11 +2298,11 @@
       <c r="G50" s="61"/>
       <c r="H50" s="60"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="109"/>
       <c r="E51" s="64"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2268,7 +2310,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
@@ -2277,10 +2319,10 @@
       <c r="F52" s="58"/>
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="111"/>
+      <c r="J52" s="112"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="59"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2289,10 +2331,10 @@
       <c r="F53" s="61"/>
       <c r="G53" s="61"/>
       <c r="H53" s="60"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2301,10 +2343,10 @@
       <c r="F54" s="62"/>
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2314,24 +2356,19 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="111"/>
+      <c r="C60" s="112"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="111"/>
+      <c r="C67" s="112"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2339,6 +2376,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2352,12 +2394,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2366,14 +2408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C4582A-4A06-404A-83A3-D71A0E09AE5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A83D3D-C32D-4E2E-8C72-F2A28D812251}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -970,20 +970,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,6 +979,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1358,29 +1358,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1981,15 +1981,36 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="91"/>
+      <c r="B25" s="10">
+        <v>44001</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44004</v>
+      </c>
+      <c r="D25" s="10">
+        <v>44006</v>
+      </c>
+      <c r="E25" s="28">
+        <v>593978</v>
+      </c>
+      <c r="F25" s="28">
+        <v>623589</v>
+      </c>
+      <c r="G25" s="25">
+        <f>F25/A$20</f>
+        <v>3.7118392857142857E-2</v>
+      </c>
+      <c r="H25" s="82">
+        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <v>9096094</v>
+      </c>
+      <c r="I25" s="83">
+        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <v>0.54143416666666688</v>
+      </c>
+      <c r="J25" s="91">
+        <v>429</v>
+      </c>
       <c r="K25" s="70"/>
       <c r="L25" s="1"/>
     </row>
@@ -2072,23 +2093,23 @@
       <c r="D31" s="20"/>
       <c r="E31" s="95">
         <f>SUM(E20:E30)</f>
-        <v>2504390</v>
+        <v>3098368</v>
       </c>
       <c r="F31" s="96">
         <f>SUM(F20:F30)</f>
-        <v>7080317</v>
+        <v>7703906</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.42144744047619054</v>
+        <v>0.45856583333333339</v>
       </c>
       <c r="H31" s="21">
         <f>A20-F31</f>
-        <v>9719683</v>
+        <v>9096094</v>
       </c>
       <c r="I31" s="31">
         <f>1-G31</f>
-        <v>0.57855255952380946</v>
+        <v>0.54143416666666666</v>
       </c>
       <c r="J31" s="92"/>
       <c r="K31" s="72"/>
@@ -2107,12 +2128,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2121,10 +2142,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="115"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
@@ -2139,18 +2160,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="113">
+      <c r="A37" s="107">
         <f>A20-F31</f>
-        <v>9719683</v>
-      </c>
-      <c r="B37" s="114"/>
+        <v>9096094</v>
+      </c>
+      <c r="B37" s="108"/>
       <c r="C37" s="76">
         <f>1-G31</f>
-        <v>0.57855255952380946</v>
+        <v>0.54143416666666666</v>
       </c>
       <c r="D37" s="22">
         <f>(C37/0.8)*100</f>
-        <v>72.319069940476183</v>
+        <v>67.679270833333334</v>
       </c>
       <c r="E37" s="89" t="s">
         <v>44</v>
@@ -2205,8 +2226,8 @@
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="112"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="106"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="59"/>
@@ -2300,9 +2321,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="109"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="64"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2319,8 +2340,8 @@
       <c r="F52" s="58"/>
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="112"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="59"/>
@@ -2331,8 +2352,8 @@
       <c r="F53" s="61"/>
       <c r="G53" s="61"/>
       <c r="H53" s="60"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
@@ -2343,8 +2364,8 @@
       <c r="F54" s="62"/>
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
@@ -2357,18 +2378,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="111"/>
-      <c r="C60" s="112"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="111"/>
-      <c r="C67" s="112"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2376,11 +2402,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1-500-16 (Сябры  0,5 л).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A83D3D-C32D-4E2E-8C72-F2A28D812251}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AADD80A-3383-4016-962B-5216B2B33A69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>№Поз</t>
   </si>
@@ -157,9 +157,6 @@
     <t>FS-873 U</t>
   </si>
   <si>
-    <t>Формокомплект бутылки «Сябры»  тип XXI-В-28-2,1-500-16 (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
-  </si>
-  <si>
     <t>Дата поставки  14.01.19 (c остаточным ресурсом 74 %)</t>
   </si>
   <si>
@@ -170,6 +167,15 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Горловые кольца используем с "Брест колосков"</t>
+  </si>
+  <si>
+    <t>Плунжера проточенные</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Сябры»  тип XXI-В-28-2.1-500-16 (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -762,9 +768,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,9 +955,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,6 +968,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -979,20 +996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,16 +1338,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -1358,34 +1361,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1396,364 +1399,372 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46">
         <v>24</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="47">
+      <c r="F5" s="92"/>
+      <c r="G5" s="46">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="73"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="94"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="74"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="94"/>
+      <c r="F7" s="93">
+        <v>1</v>
+      </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="50"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="74"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="50"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="74"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="74"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="50"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="93">
+        <v>60</v>
+      </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="51"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="30"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
+      <c r="L12" s="73"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="103">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="94"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="93">
         <v>5</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="13">
         <v>60</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="93">
+        <v>34</v>
+      </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="51"/>
+        <v>26</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="74"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="94"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="84"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="83"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="74"/>
+      <c r="L16" s="73"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="64"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1763,252 +1774,231 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-    </row>
-    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H20" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I20" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="75">
+      <c r="J20" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="74">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78">
+      <c r="B21" s="76"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77">
         <v>4360000</v>
       </c>
-      <c r="G20" s="38">
-        <f>F20/A$20</f>
+      <c r="G21" s="37">
+        <f t="shared" ref="G21:G33" si="2">F21/A$21</f>
         <v>0.25952380952380955</v>
       </c>
-      <c r="H20" s="82">
-        <f>A20-F20</f>
+      <c r="H21" s="81">
+        <f>A21-F21</f>
         <v>12440000</v>
       </c>
-      <c r="I20" s="83">
-        <f>1-G20</f>
+      <c r="I21" s="82">
+        <f>1-G21</f>
         <v>0.74047619047619051</v>
       </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="79">
+      <c r="J21" s="89"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="78">
         <v>43572</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C22" s="78">
         <v>43579</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D22" s="78">
         <v>43581</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E22" s="79">
         <v>1016652</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F22" s="79">
         <v>1151547</v>
       </c>
-      <c r="G21" s="38">
-        <f>F21/A$20</f>
+      <c r="G22" s="37">
+        <f t="shared" si="2"/>
         <v>6.8544464285714285E-2</v>
       </c>
-      <c r="H21" s="82">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+      <c r="H22" s="81">
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
         <v>11288453</v>
       </c>
-      <c r="I21" s="83">
-        <f t="shared" si="2"/>
+      <c r="I22" s="82">
+        <f t="shared" si="3"/>
         <v>0.67193172619047625</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10">
-        <v>43834</v>
-      </c>
-      <c r="C22" s="10">
-        <v>43839</v>
-      </c>
-      <c r="D22" s="10">
-        <v>43857</v>
-      </c>
-      <c r="E22" s="11">
-        <v>893760</v>
-      </c>
-      <c r="F22" s="11">
-        <v>941633</v>
-      </c>
-      <c r="G22" s="38">
-        <f>F22/A$20</f>
-        <v>5.6049583333333333E-2</v>
-      </c>
-      <c r="H22" s="82">
-        <f t="shared" si="2"/>
-        <v>10346820</v>
-      </c>
-      <c r="I22" s="83">
-        <f t="shared" si="2"/>
-        <v>0.61588214285714293</v>
-      </c>
-      <c r="J22" s="91">
-        <v>429</v>
-      </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J22" s="89"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="10">
-        <v>43920</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>45</v>
+        <v>43834</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43839</v>
       </c>
       <c r="D23" s="10">
-        <v>43922</v>
-      </c>
-      <c r="E23" s="28">
-        <v>277438</v>
-      </c>
-      <c r="F23" s="28">
-        <v>304900</v>
-      </c>
-      <c r="G23" s="38">
-        <f>F23/A$20</f>
-        <v>1.8148809523809525E-2</v>
-      </c>
-      <c r="H23" s="82">
+        <v>43857</v>
+      </c>
+      <c r="E23" s="11">
+        <v>893760</v>
+      </c>
+      <c r="F23" s="11">
+        <v>941633</v>
+      </c>
+      <c r="G23" s="37">
         <f t="shared" si="2"/>
-        <v>10041920</v>
-      </c>
-      <c r="I23" s="83">
-        <f t="shared" si="2"/>
-        <v>0.59773333333333345</v>
-      </c>
-      <c r="J23" s="98">
+        <v>5.6049583333333333E-2</v>
+      </c>
+      <c r="H23" s="81">
+        <f t="shared" si="3"/>
+        <v>10346820</v>
+      </c>
+      <c r="I23" s="82">
+        <f t="shared" si="3"/>
+        <v>0.61588214285714293</v>
+      </c>
+      <c r="J23" s="90">
         <v>429</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10">
-        <v>43923</v>
+      <c r="B24" s="10">
+        <v>43920</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="10">
-        <v>43930</v>
-      </c>
-      <c r="E24" s="28">
-        <v>316540</v>
-      </c>
-      <c r="F24" s="28">
-        <v>322237</v>
-      </c>
-      <c r="G24" s="25">
-        <f>F24/A$20</f>
-        <v>1.9180773809523811E-2</v>
-      </c>
-      <c r="H24" s="82">
-        <f t="shared" ref="H24" si="3">H23-F24</f>
-        <v>9719683</v>
-      </c>
-      <c r="I24" s="83">
-        <f t="shared" ref="I24" si="4">I23-G24</f>
-        <v>0.57855255952380968</v>
-      </c>
-      <c r="J24" s="91">
+        <v>43922</v>
+      </c>
+      <c r="E24" s="27">
+        <v>277438</v>
+      </c>
+      <c r="F24" s="27">
+        <v>304900</v>
+      </c>
+      <c r="G24" s="37">
+        <f t="shared" si="2"/>
+        <v>1.8148809523809525E-2</v>
+      </c>
+      <c r="H24" s="81">
+        <f t="shared" si="3"/>
+        <v>10041920</v>
+      </c>
+      <c r="I24" s="82">
+        <f t="shared" si="3"/>
+        <v>0.59773333333333345</v>
+      </c>
+      <c r="J24" s="97">
         <v>429</v>
       </c>
-      <c r="K24" s="71"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="10">
-        <v>44001</v>
+      <c r="B25" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="10">
-        <v>44004</v>
+        <v>43923</v>
       </c>
       <c r="D25" s="10">
-        <v>44006</v>
-      </c>
-      <c r="E25" s="28">
-        <v>593978</v>
-      </c>
-      <c r="F25" s="28">
-        <v>623589</v>
+        <v>43930</v>
+      </c>
+      <c r="E25" s="27">
+        <v>316540</v>
+      </c>
+      <c r="F25" s="27">
+        <v>322237</v>
       </c>
       <c r="G25" s="25">
-        <f>F25/A$20</f>
-        <v>3.7118392857142857E-2</v>
-      </c>
-      <c r="H25" s="82">
-        <f t="shared" ref="H25" si="5">H24-F25</f>
-        <v>9096094</v>
-      </c>
-      <c r="I25" s="83">
-        <f t="shared" ref="I25" si="6">I24-G25</f>
-        <v>0.54143416666666688</v>
-      </c>
-      <c r="J25" s="91">
+        <f t="shared" si="2"/>
+        <v>1.9180773809523811E-2</v>
+      </c>
+      <c r="H25" s="81">
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>9719683</v>
+      </c>
+      <c r="I25" s="82">
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.57855255952380968</v>
+      </c>
+      <c r="J25" s="90">
         <v>429</v>
       </c>
       <c r="K25" s="70"/>
@@ -2016,200 +2006,366 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="70"/>
+      <c r="B26" s="10">
+        <v>44001</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44004</v>
+      </c>
+      <c r="D26" s="10">
+        <v>44006</v>
+      </c>
+      <c r="E26" s="27">
+        <v>593978</v>
+      </c>
+      <c r="F26" s="27">
+        <v>623589</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="2"/>
+        <v>3.7118392857142857E-2</v>
+      </c>
+      <c r="H26" s="81">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>9096094</v>
+      </c>
+      <c r="I26" s="82">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.54143416666666688</v>
+      </c>
+      <c r="J26" s="90">
+        <v>429</v>
+      </c>
+      <c r="K26" s="69"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="70"/>
+      <c r="B27" s="10">
+        <v>44068</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10">
+        <v>44075</v>
+      </c>
+      <c r="E27" s="27">
+        <v>1070650</v>
+      </c>
+      <c r="F27" s="27">
+        <v>1105413</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="2"/>
+        <v>6.5798392857142854E-2</v>
+      </c>
+      <c r="H27" s="81">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>7990681</v>
+      </c>
+      <c r="I27" s="82">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.47563577380952404</v>
+      </c>
+      <c r="J27" s="90">
+        <v>429</v>
+      </c>
+      <c r="K27" s="69"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="70"/>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44076</v>
+      </c>
+      <c r="D28" s="10">
+        <v>44105</v>
+      </c>
+      <c r="E28" s="27">
+        <v>309092</v>
+      </c>
+      <c r="F28" s="27">
+        <v>317883</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="2"/>
+        <v>1.8921607142857143E-2</v>
+      </c>
+      <c r="H28" s="81">
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>7672798</v>
+      </c>
+      <c r="I28" s="82">
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.45671416666666692</v>
+      </c>
+      <c r="J28" s="90">
+        <v>429</v>
+      </c>
+      <c r="K28" s="69"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="70"/>
+      <c r="B29" s="10">
+        <v>44155</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44164</v>
+      </c>
+      <c r="D29" s="10">
+        <v>44166</v>
+      </c>
+      <c r="E29" s="27">
+        <v>1526840</v>
+      </c>
+      <c r="F29" s="27">
+        <v>1579415</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="2"/>
+        <v>9.4012797619047614E-2</v>
+      </c>
+      <c r="H29" s="81">
+        <f t="shared" ref="H29" si="12">H28-F29</f>
+        <v>6093383</v>
+      </c>
+      <c r="I29" s="82">
+        <f t="shared" ref="I29" si="13">I28-G29</f>
+        <v>0.36270136904761929</v>
+      </c>
+      <c r="J29" s="98">
+        <v>429</v>
+      </c>
+      <c r="K29" s="69"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="1"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="10">
+        <v>44215</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D30" s="10">
+        <v>44228</v>
+      </c>
+      <c r="E30" s="27">
+        <v>1215886</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1261613</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="2"/>
+        <v>7.5096011904761908E-2</v>
+      </c>
+      <c r="H30" s="81">
+        <f t="shared" ref="H30" si="14">H29-F30</f>
+        <v>4831770</v>
+      </c>
+      <c r="I30" s="82">
+        <f t="shared" ref="I30" si="15">I29-G30</f>
+        <v>0.2876053571428574</v>
+      </c>
+      <c r="J30" s="98">
+        <v>430</v>
+      </c>
+      <c r="K30" s="69"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17">
+        <v>44275</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="17">
+        <v>44287</v>
+      </c>
+      <c r="E31" s="100">
+        <v>1856414</v>
+      </c>
+      <c r="F31" s="100">
+        <v>1832786</v>
+      </c>
+      <c r="G31" s="23">
+        <f t="shared" si="2"/>
+        <v>0.10909440476190477</v>
+      </c>
+      <c r="H31" s="81">
+        <f t="shared" ref="H31" si="16">H30-F31</f>
+        <v>2998984</v>
+      </c>
+      <c r="I31" s="82">
+        <f t="shared" ref="I31" si="17">I30-G31</f>
+        <v>0.17851095238095263</v>
+      </c>
+      <c r="J31" s="102">
+        <v>430</v>
+      </c>
+      <c r="K31" s="69"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="17">
+        <v>44288</v>
+      </c>
+      <c r="D32" s="17">
+        <v>44319</v>
+      </c>
+      <c r="E32" s="100">
+        <v>307230</v>
+      </c>
+      <c r="F32" s="100">
+        <v>316996</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8868809523809524E-2</v>
+      </c>
+      <c r="H32" s="81">
+        <f t="shared" ref="H32" si="18">H31-F32</f>
+        <v>2681988</v>
+      </c>
+      <c r="I32" s="82">
+        <f t="shared" ref="I32" si="19">I31-G32</f>
+        <v>0.15964214285714312</v>
+      </c>
+      <c r="J32" s="102">
+        <v>430</v>
+      </c>
+      <c r="K32" s="69"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17">
+        <v>44319</v>
+      </c>
+      <c r="C33" s="17">
+        <v>44335</v>
+      </c>
+      <c r="D33" s="17">
+        <v>44349</v>
+      </c>
+      <c r="E33" s="100">
+        <v>2653350</v>
+      </c>
+      <c r="F33" s="100">
+        <v>2705633</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="2"/>
+        <v>0.16104958333333333</v>
+      </c>
+      <c r="H33" s="81">
+        <f t="shared" ref="H33" si="20">H32-F33</f>
+        <v>-23645</v>
+      </c>
+      <c r="I33" s="82">
+        <f t="shared" ref="I33" si="21">I32-G33</f>
+        <v>-1.4074404761902082E-3</v>
+      </c>
+      <c r="J33" s="102">
+        <v>430</v>
+      </c>
+      <c r="K33" s="69"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="95">
-        <f>SUM(E20:E30)</f>
-        <v>3098368</v>
-      </c>
-      <c r="F31" s="96">
-        <f>SUM(F20:F30)</f>
-        <v>7703906</v>
-      </c>
-      <c r="G31" s="24">
-        <f>SUM(G20:G30)</f>
-        <v>0.45856583333333339</v>
-      </c>
-      <c r="H31" s="21">
-        <f>A20-F31</f>
-        <v>9096094</v>
-      </c>
-      <c r="I31" s="31">
-        <f>1-G31</f>
-        <v>0.54143416666666666</v>
-      </c>
-      <c r="J31" s="92"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="107">
-        <f>A20-F31</f>
-        <v>9096094</v>
-      </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="76">
-        <f>1-G31</f>
-        <v>0.54143416666666666</v>
-      </c>
-      <c r="D37" s="22">
-        <f>(C37/0.8)*100</f>
-        <v>67.679270833333334</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="94">
+        <f>SUM(E21:E34)</f>
+        <v>12037830</v>
+      </c>
+      <c r="F35" s="95">
+        <f>SUM(F21:F34)</f>
+        <v>16823645</v>
+      </c>
+      <c r="G35" s="24">
+        <f>SUM(G21:G34)</f>
+        <v>1.0014074404761906</v>
+      </c>
+      <c r="H35" s="21">
+        <f>A21-F35</f>
+        <v>-23645</v>
+      </c>
+      <c r="I35" s="30">
+        <f>1-G35</f>
+        <v>-1.407440476190569E-3</v>
+      </c>
+      <c r="J35" s="91"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="114"/>
+      <c r="C40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2217,191 +2373,249 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="112">
+        <f>A21-F35</f>
+        <v>-23645</v>
+      </c>
+      <c r="B41" s="113"/>
+      <c r="C41" s="75">
+        <f>1-G35</f>
+        <v>-1.407440476190569E-3</v>
+      </c>
+      <c r="D41" s="22">
+        <f>(C41/0.8)*100</f>
+        <v>-0.17593005952382113</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="60"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="60"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="60"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="60"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="111"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="60"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="60"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="60"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="60"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="59"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="59"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="59"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="111"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="58"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="58"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="110"/>
+      <c r="C64" s="111"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="110"/>
+      <c r="C71" s="111"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2409,7 +2623,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="41" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
